--- a/Output/estimateurs_estaccumR.xlsx
+++ b/Output/estimateurs_estaccumR.xlsx
@@ -376,13 +376,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Output/estimateurs_estaccumR.xlsx
+++ b/Output/estimateurs_estaccumR.xlsx
@@ -376,13 +376,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
